--- a/data-dictionaries/dd-nptrends-year-03-puf.xlsx
+++ b/data-dictionaries/dd-nptrends-year-03-puf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdlec\Dropbox (Personal)\00 - URBAN\00-GITHUB\nccs-nptrends\data-dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10738E33-392D-4B75-8530-B21E2356B2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5577A8-36F8-4956-BA48-C6D97344EB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21945" yWindow="2205" windowWidth="28275" windowHeight="18495" xr2:uid="{5572D8ED-434A-412A-A007-947EB1DCFE87}"/>
+    <workbookView xWindow="13335" yWindow="2205" windowWidth="28275" windowHeight="18495" xr2:uid="{5572D8ED-434A-412A-A007-947EB1DCFE87}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="2" r:id="rId1"/>
@@ -50,12 +50,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="853">
   <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -560,15 +554,6 @@
     <t xml:space="preserve">add noise to this variable to anonymize? </t>
   </si>
   <si>
-    <t>survey question sub</t>
-  </si>
-  <si>
-    <t>survey question full</t>
-  </si>
-  <si>
-    <t>survey question response categories (kindof)</t>
-  </si>
-  <si>
     <t>DD VARIABLE</t>
   </si>
   <si>
@@ -581,9 +566,6 @@
     <t>qualtrix</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>Respondent last name</t>
   </si>
   <si>
@@ -2031,9 +2013,6 @@
   </si>
   <si>
     <t>Total revenue from corporate sponsorship</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Estimated total operating cash and unrestricted liquid assets in reserve for 2022</t>
   </si>
   <si>
     <t>Estimated total operating cash and unrestricted liquid assets in reserve is not applicable</t>
@@ -2624,10 +2603,31 @@
     <t>Response ID (anonymous)</t>
   </si>
   <si>
-    <t>survey_question</t>
-  </si>
-  <si>
     <t xml:space="preserve">is the variable included in the public use file? </t>
+  </si>
+  <si>
+    <t>question_prompt</t>
+  </si>
+  <si>
+    <t>question_response</t>
+  </si>
+  <si>
+    <t>question_full</t>
+  </si>
+  <si>
+    <t>response category for the question</t>
+  </si>
+  <si>
+    <t>survey question prompt text</t>
+  </si>
+  <si>
+    <t>survey question full (prompt + response category)</t>
+  </si>
+  <si>
+    <t>nccs staff</t>
+  </si>
+  <si>
+    <t>Estimated total operating cash and unrestricted liquid assets in reserve for 2022</t>
   </si>
 </sst>
 </file>
@@ -2719,10 +2719,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2731,7 +2728,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2781,12 +2781,12 @@
     <tableColumn id="10" xr3:uid="{30157380-46AE-4F6E-8CF2-AB0167484CB0}" uniqueName="10" name="variable_name" queryTableFieldId="10" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{2F2BDCF7-4937-44B5-9D5A-B5EDF6E5270F}" uniqueName="13" name="variable_label" queryTableFieldId="14"/>
     <tableColumn id="12" xr3:uid="{DDD8B96D-0B9A-4EFB-93A4-500DEA431A02}" uniqueName="12" name="type" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{83E71673-C3B2-400A-B55A-7FFE22AE9880}" uniqueName="14" name="in_puf?" queryTableFieldId="18" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{E274716A-6130-4BB3-8230-5952D26A87D4}" uniqueName="9" name="add_noise?" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{83E71673-C3B2-400A-B55A-7FFE22AE9880}" uniqueName="14" name="in_puf?" queryTableFieldId="18" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E274716A-6130-4BB3-8230-5952D26A87D4}" uniqueName="9" name="add_noise?" queryTableFieldId="9" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{9C910C13-65D4-4D56-A901-A8CA4A6D3F1E}" uniqueName="6" name="question_group" queryTableFieldId="6"/>
-    <tableColumn id="3" xr3:uid="{2652D4A6-7529-4D89-8347-DDEDE8A9552B}" uniqueName="3" name="survey_question" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EFF0F207-748B-4783-ABBA-79486F136959}" uniqueName="4" name="main" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{CA8BED3D-5A5E-4C7F-B2A5-BFD5F716A2F0}" uniqueName="5" name="sub" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2652D4A6-7529-4D89-8347-DDEDE8A9552B}" uniqueName="3" name="question_full" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EFF0F207-748B-4783-ABBA-79486F136959}" uniqueName="4" name="question_prompt" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{CA8BED3D-5A5E-4C7F-B2A5-BFD5F716A2F0}" uniqueName="5" name="question_response" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3092,13 +3092,13 @@
   <dimension ref="A1:J212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="64.44140625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -3113,34 +3113,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C1" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H1" t="s">
+        <v>847</v>
+      </c>
+      <c r="I1" t="s">
         <v>845</v>
       </c>
-      <c r="G1" t="s">
-        <v>829</v>
-      </c>
-      <c r="H1" t="s">
-        <v>851</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3148,31 +3148,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="C2" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3180,31 +3180,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="C3" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3212,31 +3212,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C4" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3244,31 +3244,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C5" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3276,31 +3276,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3308,31 +3308,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3340,31 +3340,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3372,31 +3372,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I9" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3404,31 +3404,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3436,31 +3436,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I11" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3468,31 +3468,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="I12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3500,31 +3500,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I13" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3532,31 +3532,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I14" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3564,31 +3564,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H15" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3596,31 +3596,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
         <v>133</v>
       </c>
-      <c r="G16" t="s">
-        <v>135</v>
-      </c>
       <c r="H16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="I16" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3628,31 +3628,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="s">
         <v>133</v>
       </c>
-      <c r="G17" t="s">
-        <v>135</v>
-      </c>
       <c r="H17" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I17" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J17" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3660,31 +3660,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
         <v>133</v>
       </c>
-      <c r="G18" t="s">
-        <v>135</v>
-      </c>
       <c r="H18" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I18" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3692,31 +3692,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
         <v>133</v>
       </c>
-      <c r="G19" t="s">
-        <v>135</v>
-      </c>
       <c r="H19" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I19" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3724,31 +3724,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D20" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="s">
         <v>133</v>
       </c>
-      <c r="G20" t="s">
-        <v>135</v>
-      </c>
       <c r="H20" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I20" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J20" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3756,31 +3756,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D21" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" t="s">
         <v>133</v>
       </c>
-      <c r="G21" t="s">
-        <v>135</v>
-      </c>
       <c r="H21" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="I21" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3788,31 +3788,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C22" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
         <v>133</v>
       </c>
-      <c r="G22" t="s">
-        <v>135</v>
-      </c>
       <c r="H22" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I22" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3820,31 +3820,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C23" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" t="s">
         <v>133</v>
       </c>
-      <c r="G23" t="s">
-        <v>135</v>
-      </c>
       <c r="H23" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I23" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3852,31 +3852,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C24" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" t="s">
         <v>133</v>
       </c>
-      <c r="G24" t="s">
-        <v>135</v>
-      </c>
       <c r="H24" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="I24" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J24" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3884,31 +3884,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" t="s">
         <v>133</v>
       </c>
-      <c r="G25" t="s">
-        <v>135</v>
-      </c>
       <c r="H25" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3916,31 +3916,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C26" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D26" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
         <v>133</v>
       </c>
-      <c r="G26" t="s">
-        <v>135</v>
-      </c>
       <c r="H26" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="I26" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J26" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3948,31 +3948,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
         <v>133</v>
       </c>
-      <c r="G27" t="s">
-        <v>135</v>
-      </c>
       <c r="H27" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I27" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3980,31 +3980,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D28" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
         <v>133</v>
       </c>
-      <c r="G28" t="s">
-        <v>135</v>
-      </c>
       <c r="H28" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I28" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4012,31 +4012,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
         <v>133</v>
       </c>
-      <c r="G29" t="s">
-        <v>135</v>
-      </c>
       <c r="H29" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I29" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4044,31 +4044,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D30" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" t="s">
-        <v>135</v>
-      </c>
       <c r="H30" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I30" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4076,31 +4076,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D31" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>846</v>
+        <v>131</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H31" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I31" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4108,31 +4108,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D32" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>846</v>
+        <v>131</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H32" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I32" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4140,31 +4140,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D33" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H33" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="I33" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4172,31 +4172,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C34" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D34" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H34" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I34" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4204,31 +4204,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G35" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H35" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I35" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="J35" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4236,31 +4236,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D36" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H36" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I36" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J36" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4268,31 +4268,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D37" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H37" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="I37" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J37" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4300,31 +4300,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D38" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H38" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I38" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J38" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4332,31 +4332,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D39" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H39" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="I39" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J39" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4364,31 +4364,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H40" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="I40" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J40" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4396,31 +4396,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D41" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I41" t="s">
+        <v>469</v>
+      </c>
+      <c r="J41" t="s">
         <v>475</v>
-      </c>
-      <c r="J41" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4428,31 +4428,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D42" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H42" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I42" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J42" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -4460,31 +4460,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D43" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H43" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I43" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -4492,31 +4492,31 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D44" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H44" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I44" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J44" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -4524,31 +4524,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C45" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D45" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="I45" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J45" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -4556,31 +4556,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H46" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I46" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J46" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -4588,31 +4588,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C47" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D47" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H47" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I47" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J47" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -4620,31 +4620,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C48" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D48" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H48" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I48" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J48" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -4652,31 +4652,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C49" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D49" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H49" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I49" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J49" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -4684,31 +4684,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D50" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H50" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I50" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J50" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -4716,31 +4716,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D51" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H51" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I51" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -4748,31 +4748,31 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D52" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H52" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I52" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J52" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -4780,31 +4780,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D53" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H53" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I53" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J53" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -4812,31 +4812,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D54" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H54" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I54" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -4844,31 +4844,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D55" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H55" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I55" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -4876,31 +4876,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D56" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H56" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="I56" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -4908,31 +4908,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C57" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H57" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="I57" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -4940,31 +4940,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D58" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H58" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I58" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -4972,31 +4972,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H59" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I59" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5004,31 +5004,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C60" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D60" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H60" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="I60" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5036,31 +5036,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D61" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H61" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I61" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5068,31 +5068,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C62" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D62" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H62" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I62" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5100,31 +5100,31 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H63" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I63" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J63" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5132,31 +5132,31 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H64" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I64" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J64" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -5164,31 +5164,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D65" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H65" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="I65" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -5196,31 +5196,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D66" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H66" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I66" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -5228,31 +5228,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D67" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H67" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I67" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J67" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -5260,31 +5260,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D68" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H68" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I68" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -5292,31 +5292,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C69" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D69" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H69" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I69" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J69" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -5324,31 +5324,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D70" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H70" t="s">
+        <v>497</v>
+      </c>
+      <c r="I70" t="s">
         <v>503</v>
       </c>
-      <c r="I70" t="s">
-        <v>509</v>
-      </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -5356,31 +5356,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D71" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H71" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="I71" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -5388,31 +5388,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D72" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H72" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="I72" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -5420,31 +5420,31 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C73" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D73" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H73" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="I73" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -5452,31 +5452,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D74" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H74" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="I74" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -5484,31 +5484,31 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C75" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D75" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H75" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I75" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -5516,31 +5516,31 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D76" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G76" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H76" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="I76" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -5548,31 +5548,31 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H77" t="s">
+        <v>695</v>
+      </c>
+      <c r="I77" t="s">
         <v>702</v>
       </c>
-      <c r="I77" t="s">
-        <v>709</v>
-      </c>
       <c r="J77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -5580,31 +5580,31 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H78" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="I78" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -5612,31 +5612,31 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G79" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H79" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="I79" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -5644,31 +5644,31 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G80" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H80" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="I80" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -5676,31 +5676,31 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H81" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="I81" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -5708,31 +5708,31 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H82" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="I82" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -5740,31 +5740,31 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G83" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H83" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="I83" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -5772,31 +5772,31 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C84" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D84" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H84" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="I84" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -5804,31 +5804,31 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D85" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H85" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="I85" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="J85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -5836,31 +5836,31 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D86" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G86" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H86" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="I86" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -5868,31 +5868,31 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C87" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D87" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G87" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H87" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="I87" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -5900,31 +5900,31 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D88" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H88" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="I88" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -5932,31 +5932,31 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C89" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D89" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G89" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H89" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="I89" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -5964,31 +5964,31 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C90" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D90" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H90" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="I90" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -5996,31 +5996,31 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D91" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H91" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="I91" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6028,31 +6028,31 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D92" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H92" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="I92" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -6060,31 +6060,31 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D93" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H93" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="I93" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J93" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6092,31 +6092,31 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D94" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H94" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="I94" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J94" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -6124,31 +6124,31 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C95" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H95" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="I95" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J95" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -6156,31 +6156,31 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C96" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D96" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G96" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H96" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="I96" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6188,31 +6188,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D97" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H97" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="I97" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -6220,31 +6220,31 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C98" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D98" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G98" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H98" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="I98" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J98" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -6252,31 +6252,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C99" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D99" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H99" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="I99" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J99" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -6284,31 +6284,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C100" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D100" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H100" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="I100" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -6316,31 +6316,31 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D101" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G101" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H101" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="I101" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -6348,31 +6348,31 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C102" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D102" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H102" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="I102" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -6380,31 +6380,31 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D103" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H103" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="I103" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J103" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -6412,31 +6412,31 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D104" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H104" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="I104" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -6444,31 +6444,31 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C105" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D105" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H105" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="I105" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -6476,31 +6476,31 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C106" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D106" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H106" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="I106" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J106" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -6508,31 +6508,31 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C107" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D107" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H107" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="I107" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -6540,31 +6540,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C108" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D108" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H108" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="I108" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J108" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -6572,31 +6572,31 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C109" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D109" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G109" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H109" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="I109" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J109" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -6604,31 +6604,31 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C110" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D110" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H110" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="I110" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -6636,31 +6636,31 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C111" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D111" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G111" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H111" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="I111" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -6668,31 +6668,31 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C112" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D112" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G112" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H112" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="I112" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -6700,31 +6700,31 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C113" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D113" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G113" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H113" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="I113" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J113" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -6732,31 +6732,31 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D114" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G114" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H114" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="I114" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J114" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -6764,31 +6764,31 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D115" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H115" t="s">
+        <v>735</v>
+      </c>
+      <c r="I115" t="s">
         <v>742</v>
       </c>
-      <c r="I115" t="s">
-        <v>749</v>
-      </c>
       <c r="J115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -6796,31 +6796,31 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D116" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G116" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H116" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="I116" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -6828,31 +6828,31 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D117" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G117" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H117" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="I117" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J117" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -6860,31 +6860,31 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D118" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H118" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="I118" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -6892,31 +6892,31 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C119" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D119" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G119" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H119" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="I119" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -6924,31 +6924,31 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>661</v>
+        <v>852</v>
       </c>
       <c r="D120" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>133</v>
+        <v>839</v>
       </c>
       <c r="G120" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H120" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="I120" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="J120" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -6956,31 +6956,31 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C121" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D121" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G121" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H121" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="I121" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="J121" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -6988,31 +6988,31 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C122" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D122" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G122" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H122" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="I122" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="J122" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -7020,31 +7020,31 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C123" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D123" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>133</v>
+        <v>839</v>
       </c>
       <c r="G123" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H123" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="J123" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -7052,31 +7052,31 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C124" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D124" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H124" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="I124" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J124" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -7084,31 +7084,31 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C125" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D125" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H125" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="I125" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J125" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -7116,31 +7116,31 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C126" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D126" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H126" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="I126" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J126" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -7148,31 +7148,31 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C127" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D127" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H127" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="I127" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J127" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -7180,31 +7180,31 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C128" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D128" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H128" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="I128" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J128" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -7212,31 +7212,31 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C129" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D129" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H129" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="I129" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J129" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -7244,31 +7244,31 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C130" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D130" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H130" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="I130" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -7276,31 +7276,31 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C131" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D131" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G131" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H131" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="I131" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -7308,31 +7308,31 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C132" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D132" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G132" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H132" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="I132" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J132" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -7340,31 +7340,31 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C133" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D133" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G133" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H133" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="I133" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J133" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -7372,31 +7372,31 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="D134" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G134" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H134" t="s">
+        <v>761</v>
+      </c>
+      <c r="I134" t="s">
         <v>768</v>
       </c>
-      <c r="I134" t="s">
-        <v>775</v>
-      </c>
       <c r="J134" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -7404,31 +7404,31 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C135" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D135" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G135" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H135" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="I135" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J135" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -7436,31 +7436,31 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D136" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G136" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H136" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="I136" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J136" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -7468,31 +7468,31 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C137" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="D137" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H137" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="I137" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -7500,31 +7500,31 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C138" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="D138" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G138" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H138" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="I138" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J138" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -7532,31 +7532,31 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C139" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D139" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H139" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="I139" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J139" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -7564,31 +7564,31 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C140" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D140" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H140" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I140" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J140" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -7596,31 +7596,31 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C141" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D141" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G141" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H141" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="I141" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -7628,31 +7628,31 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C142" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D142" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G142" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H142" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="I142" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -7660,31 +7660,31 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C143" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D143" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G143" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H143" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="I143" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="J143" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -7692,31 +7692,31 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C144" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D144" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G144" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H144" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="I144" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="J144" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -7724,31 +7724,31 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D145" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G145" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H145" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="I145" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="J145" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -7756,31 +7756,31 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C146" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D146" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G146" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H146" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="I146" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="J146" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -7788,31 +7788,31 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C147" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D147" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G147" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H147" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="I147" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="J147" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -7820,31 +7820,31 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C148" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D148" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H148" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="I148" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="J148" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -7852,31 +7852,31 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C149" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D149" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H149" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="I149" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="J149" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -7884,31 +7884,31 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C150" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D150" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G150" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H150" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="I150" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="J150" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -7916,31 +7916,31 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C151" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D151" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G151" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H151" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="I151" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="J151" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -7948,31 +7948,31 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C152" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D152" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G152" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H152" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="I152" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="J152" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -7980,31 +7980,31 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C153" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D153" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G153" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H153" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="I153" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="J153" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -8012,31 +8012,31 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C154" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D154" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G154" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H154" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="I154" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="J154" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -8044,31 +8044,31 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C155" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D155" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G155" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H155" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="I155" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="J155" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -8076,31 +8076,31 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C156" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D156" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G156" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H156" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="I156" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="J156" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -8108,31 +8108,31 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C157" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D157" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G157" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H157" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="I157" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="J157" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -8140,31 +8140,31 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C158" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D158" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G158" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H158" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="I158" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="J158" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -8172,31 +8172,31 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C159" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D159" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G159" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H159" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="I159" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="J159" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -8204,31 +8204,31 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C160" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D160" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G160" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H160" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="I160" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="J160" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -8236,31 +8236,31 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C161" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D161" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G161" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H161" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="I161" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="J161" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -8268,31 +8268,31 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C162" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D162" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G162" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H162" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="I162" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="J162" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -8300,31 +8300,31 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C163" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D163" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G163" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H163" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="I163" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="J163" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -8332,31 +8332,31 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C164" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D164" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G164" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H164" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="I164" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="J164" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -8364,31 +8364,31 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C165" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D165" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G165" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H165" t="s">
+        <v>791</v>
+      </c>
+      <c r="I165" t="s">
         <v>798</v>
       </c>
-      <c r="I165" t="s">
-        <v>805</v>
-      </c>
       <c r="J165" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -8396,31 +8396,31 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C166" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D166" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G166" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H166" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I166" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="J166" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -8428,31 +8428,31 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C167" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D167" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G167" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H167" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="I167" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="J167" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -8460,31 +8460,31 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C168" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D168" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G168" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H168" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="I168" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="J168" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -8492,31 +8492,31 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C169" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D169" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G169" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H169" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="I169" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J169" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -8524,31 +8524,31 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C170" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D170" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G170" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H170" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="I170" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J170" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -8556,31 +8556,31 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C171" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D171" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G171" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H171" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="I171" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J171" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -8588,31 +8588,31 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C172" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D172" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G172" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H172" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="I172" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J172" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -8620,31 +8620,31 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C173" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D173" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G173" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H173" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="I173" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J173" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -8652,31 +8652,31 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C174" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D174" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G174" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H174" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="I174" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J174" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -8684,31 +8684,31 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C175" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D175" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G175" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H175" t="s">
+        <v>805</v>
+      </c>
+      <c r="I175" t="s">
         <v>812</v>
       </c>
-      <c r="I175" t="s">
-        <v>819</v>
-      </c>
       <c r="J175" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -8716,31 +8716,31 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C176" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D176" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G176" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H176" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="I176" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J176" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8748,31 +8748,31 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C177" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D177" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G177" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H177" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="I177" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J177" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8780,31 +8780,31 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C178" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D178" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G178" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H178" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="I178" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J178" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8812,31 +8812,31 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C179" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D179" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G179" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H179" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="I179" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J179" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8844,31 +8844,31 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C180" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D180" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G180" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H180" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="I180" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J180" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8876,31 +8876,31 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C181" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D181" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G181" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H181" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="I181" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J181" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8908,28 +8908,28 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C182" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D182" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G182" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H182" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I182" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8937,31 +8937,31 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C183" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D183" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G183" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H183" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="I183" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J183" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8969,31 +8969,31 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C184" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D184" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G184" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H184" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="I184" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J184" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -9001,31 +9001,31 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C185" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D185" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G185" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H185" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I185" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J185" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -9033,31 +9033,31 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C186" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D186" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G186" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H186" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="I186" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J186" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -9065,31 +9065,31 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C187" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D187" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G187" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H187" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J187" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -9097,31 +9097,31 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C188" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D188" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G188" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H188" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J188" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -9129,31 +9129,31 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C189" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D189" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G189" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H189" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J189" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -9161,31 +9161,31 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C190" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D190" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G190" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H190" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J190" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -9193,31 +9193,31 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C191" t="s">
+        <v>588</v>
+      </c>
+      <c r="D191" t="s">
+        <v>322</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G191" t="s">
+        <v>557</v>
+      </c>
+      <c r="H191" t="s">
+        <v>600</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="J191" t="s">
         <v>594</v>
-      </c>
-      <c r="D191" t="s">
-        <v>328</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G191" t="s">
-        <v>563</v>
-      </c>
-      <c r="H191" t="s">
-        <v>606</v>
-      </c>
-      <c r="I191" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="J191" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -9225,31 +9225,31 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C192" t="s">
+        <v>589</v>
+      </c>
+      <c r="D192" t="s">
+        <v>322</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G192" t="s">
+        <v>557</v>
+      </c>
+      <c r="H192" t="s">
+        <v>601</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="J192" t="s">
         <v>595</v>
-      </c>
-      <c r="D192" t="s">
-        <v>328</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G192" t="s">
-        <v>563</v>
-      </c>
-      <c r="H192" t="s">
-        <v>607</v>
-      </c>
-      <c r="I192" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="J192" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9257,31 +9257,31 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C193" t="s">
+        <v>590</v>
+      </c>
+      <c r="D193" t="s">
+        <v>322</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G193" t="s">
+        <v>557</v>
+      </c>
+      <c r="H193" t="s">
+        <v>602</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="J193" t="s">
         <v>596</v>
-      </c>
-      <c r="D193" t="s">
-        <v>328</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G193" t="s">
-        <v>563</v>
-      </c>
-      <c r="H193" t="s">
-        <v>608</v>
-      </c>
-      <c r="I193" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="J193" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9289,31 +9289,31 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C194" t="s">
+        <v>591</v>
+      </c>
+      <c r="D194" t="s">
+        <v>322</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G194" t="s">
+        <v>557</v>
+      </c>
+      <c r="H194" t="s">
+        <v>602</v>
+      </c>
+      <c r="I194" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D194" t="s">
-        <v>328</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G194" t="s">
-        <v>563</v>
-      </c>
-      <c r="H194" t="s">
-        <v>608</v>
-      </c>
-      <c r="I194" s="6" t="s">
-        <v>603</v>
-      </c>
       <c r="J194" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9321,31 +9321,31 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C195" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D195" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G195" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H195" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I195" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="J195" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9353,31 +9353,31 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C196" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D196" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G196" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H196" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I196" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J196" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9385,31 +9385,31 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C197" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D197" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G197" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H197" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="I197" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J197" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9417,31 +9417,31 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C198" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D198" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G198" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H198" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="I198" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J198" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9449,31 +9449,31 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C199" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D199" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G199" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H199" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="I199" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J199" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9481,31 +9481,31 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C200" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D200" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G200" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H200" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="I200" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J200" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9513,31 +9513,31 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C201" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D201" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G201" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H201" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I201" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J201" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9545,31 +9545,31 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C202" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D202" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G202" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H202" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="I202" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J202" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9577,31 +9577,31 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C203" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D203" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G203" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H203" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="I203" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J203" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9609,31 +9609,31 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C204" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D204" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G204" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H204" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="I204" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J204" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9641,31 +9641,31 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C205" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D205" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G205" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H205" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="I205" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J205" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9673,28 +9673,28 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C206" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G206" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H206" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I206" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J206" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9702,28 +9702,28 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="C207" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G207" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H207" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I207" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J207" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9731,28 +9731,28 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C208" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G208" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H208" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I208" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J208" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -9760,28 +9760,28 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C209" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G209" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H209" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I209" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J209" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -9789,25 +9789,25 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G210" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H210" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I210" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J210" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -9815,28 +9815,28 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C211" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G211" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H211" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I211" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J211" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -9844,28 +9844,28 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="C212" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G212" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H212" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I212" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J212" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9882,134 +9882,135 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="75.21875" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B7" t="s">
         <v>844</v>
       </c>
-      <c r="B7" t="s">
-        <v>852</v>
-      </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B9" t="s">
+        <v>850</v>
+      </c>
+      <c r="C9" t="s">
         <v>171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>849</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>1</v>
+        <v>846</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>848</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
